--- a/biology/Botanique/Classification_APG_IV/Classification_APG_IV.xlsx
+++ b/biology/Botanique/Classification_APG_IV/Classification_APG_IV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification APG IV (2016), ou classification phylogénétique, est la quatrième version de classification botanique des angiospermes établie par l'Angiosperm Phylogeny Group. C'est une modification de la classification phylogénétique APG III (2009).
 </t>
@@ -511,28 +523,99 @@
           <t>Nouveautés de cette version</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Voici quelques changements apportés par la version 2016 à la classification phylogénétique APG III (2009)[1] :
-Au-dessus de la famille
-Cinq nouveaux ordres sont admis, ce qui porte leur nombre total à 64[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici quelques changements apportés par la version 2016 à la classification phylogénétique APG III (2009) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classification_APG_IV</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_IV</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nouveautés de cette version</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Au-dessus de la famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cinq nouveaux ordres sont admis, ce qui porte leur nombre total à 64 :
 Boraginales
 Dilleniales
 Icacinales
 Metteniusales
 Vahliales
-Deux nouveaux clades[2] :
+Deux nouveaux clades :
 les Superrosidées (voir Rosidées)
-les Superasteridées (voir Astéridées)
-Familles et rangs inférieurs
-Modifications au niveau des familles[2] :
+les Superasteridées (voir Astéridées)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_APG_IV</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_IV</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nouveautés de cette version</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Familles et rangs inférieurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Modifications au niveau des familles :
 Dasypogonaceae est assignée à l'ordre des Arecales
 Sabiaceae est assignée à l'ordre des Proteales
 Cynomoriaceae est placé dans les Saxifragales
 Apodanthaceae est placé dans les Cucurbitales
 Asphodelaceae se substitue à Xanthorrhoeaceae (Asparagales)
 Francoaceae se substitue à Melianthaceae (Geraniales).
-Les autres changements concernent principalement les limites de certaines familles, notamment le classement de certains Lamiidées problématiques[2] :
+Les autres changements concernent principalement les limites de certaines familles, notamment le classement de certains Lamiidées problématiques :
 les Francoaceae, incluent désormais les Bersamaceae, Ledocarpaceae, Rhynchothecaceae et Vivianiaceae,
 des genres d'Icacinaceae sont placés dans les Metteniusaceae, une famille auparavant monotypique,
 aux Aristolochiaceae s'ajoutent les Lactoridaceae et Hydnoraceae (Aristolochiales),
@@ -541,7 +624,7 @@
 aux Buxaceae s'ajoutent les Haptanthaceae (Buxales),
 les Peraceae sont séparées des Euphorbiaceae (Malpighiales),
 Petenaeaceae une nouvelle famille d'Huerteales,
-s'ajoutent trois familles nouvelles au Caryophyllales : Kewaceae, Macarthuriaceae et Microteaceae[3],
+s'ajoutent trois familles nouvelles au Caryophyllales : Kewaceae, Macarthuriaceae et Microteaceae,
 les Petiveriaceae sont séparées des Phytolaccaceae (Caryophyllales),
 transfert des Allantospermum des Ixonanthaceae vers les Irvingiaceae (Malpighiales)
 transfert des Pakaraimaea (auparavant Dipterocarpaceae) vers Cistaceae (Malvales)
@@ -553,31 +636,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Classification_APG_IV</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classification_APG_IV</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Version simplifiée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>clade Angiospermes
 grade Angiospermes basales
